--- a/assets/disciplinas/LOT2030.xlsx
+++ b/assets/disciplinas/LOT2030.xlsx
@@ -64,7 +64,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EM-10,EB-6</t>
+    <t>EB-5</t>
   </si>
   <si>
     <t>Objetivos:</t>
@@ -138,7 +138,7 @@
     <t>Requisitos:</t>
   </si>
   <si>
-    <t xml:space="preserve">LOT2039 -  Estrutura e Química de Materiais Lignocelulósicos  (Requisito)
+    <t xml:space="preserve">LOT2039 -  Estrutura e Química de Materiais Lignocelulósicos  (Requisito fraco)
 </t>
   </si>
 </sst>

--- a/assets/disciplinas/LOT2030.xlsx
+++ b/assets/disciplinas/LOT2030.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Introdução à tecnologia de conversão de biomassa vegetal para estudantes de Engenharia Bioquímica, abordando os principais processos tecnológicos do setor e seus métodos de controle que incluem: celulose e papel; derivados de celulose; carvão vegetal e frações monoméricas por hidrólise.</t>
+    <t>2143261 - André Luis Ferraz</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>2143261 - André Luis Ferraz</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>A disciplina aborda uma série de processos industriais que são utilizados no fracionamento e na conversão da biomassa vegetal ligninficada em produtos elaborados como celulose e papel, derivados de celulose, carvão e açúcares.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,9 +94,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1. Breve introdução sobre a disponibilidade da biomassa: tipos de biomassa lignificada, produção por reflorestamento, resíduos agrícolas, características celulares, composição química.2. Produção de celuloses e papel: mercado mundial de celulose e papel, processos de polpação mecânica, kraft e sulfito; braqueamento de pastas celulósicas; recuperação de inorgânicos e geração de energia; métodos de controle de processo; características físico-químicas e métodos de produção de papel.3. Produção de derivados de celulose: formação do celulosato em meio alcalino, nitrato de celulose, xantato de celulose e a produção de fibras têxteis de "viscose", acetato de celulose, carboximetil celulose, etil e propilcelulose, alongamento da cadeia celulósica com epóxidos.4. Conversão térmica e produção de carvão vegetal: secagem da madeira e estabilização dimensional, processos termomecânicos e produção de aglomerados; energia de biomassa vegetal, queima para geração direta de energia; produção de carvão vegetal.5. Produção de açúcares e derivados por hidrólise: hidrólise ácida e processos de pré-tratamento para desestruturação da parede celular.6. Processos integrados para a conversão de biomassa: indústrias modernas que aplicam os conceitos de uso integrado da biomassa vegetal.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -112,27 +106,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>A avaliação será feita por meio de provas escritas.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>A nota final (NF) será calculada da seguintes maneira: NF=(P1+P2)/2</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) será calculada como MR=(NF=PR)/2</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1. EK, M., GELLERSTEDT, G., HENRIKSSON, G. Wood Chemistry and Wood Biotechnology (Vol 1) e Pulping Chemistry and Technology (Vol 2). Berlin: Walter de Gruyter, 2009.
-2. KLEMM, D., PHILIPP, B., HEINZE, T., HEINZE, U., WAGENKNECHT, U. Comprehensive Cellulose Chemistry (Volume 2-Functionalization of Cellulose). Berlin: Wyley, 1998.
-3. FENGEL, D., WEGENER, G. Wood Chemistry, Ultrastruture, Reactions. Berlin: Walter de Gruyter,1989.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -495,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -620,34 +609,37 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -661,77 +653,66 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>40</v>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOT2030.xlsx
+++ b/assets/disciplinas/LOT2030.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Introdução à tecnologia de conversão de biomassa vegetal para estudantes de Engenharia Bioquímica, abordando os principais processos tecnológicos do setor e seus métodos de controle que incluem: celulose e papel; derivados de celulose; carvão vegetal e frações monoméricas por hidrólise.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>2143261 - André Luis Ferraz</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>A disciplina aborda uma série de processos industriais que são utilizados no fracionamento e na conversão da biomassa vegetal ligninficada em produtos elaborados como celulose e papel, derivados de celulose, carvão e açúcares.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,6 +97,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1. Breve introdução sobre a disponibilidade da biomassa: tipos de biomassa lignificada, produção por reflorestamento, resíduos agrícolas, características celulares, composição química.2. Produção de celuloses e papel: mercado mundial de celulose e papel, processos de polpação mecânica, kraft e sulfito; braqueamento de pastas celulósicas; recuperação de inorgânicos e geração de energia; métodos de controle de processo; características físico-químicas e métodos de produção de papel.3. Produção de derivados de celulose: formação do celulosato em meio alcalino, nitrato de celulose, xantato de celulose e a produção de fibras têxteis de "viscose", acetato de celulose, carboximetil celulose, etil e propilcelulose, alongamento da cadeia celulósica com epóxidos.4. Conversão térmica e produção de carvão vegetal: secagem da madeira e estabilização dimensional, processos termomecânicos e produção de aglomerados; energia de biomassa vegetal, queima para geração direta de energia; produção de carvão vegetal.5. Produção de açúcares e derivados por hidrólise: hidrólise ácida e processos de pré-tratamento para desestruturação da parede celular.6. Processos integrados para a conversão de biomassa: indústrias modernas que aplicam os conceitos de uso integrado da biomassa vegetal.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,22 +112,27 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>A avaliação será feita por meio de provas escritas.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>A avaliação será feita por meio de provas escritas.</t>
+    <t>A nota final (NF) será calculada da seguintes maneira: NF=(P1+P2)/2</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>A nota final (NF) será calculada da seguintes maneira: NF=(P1+P2)/2</t>
+    <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) será calculada como MR=(NF=PR)/2</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>A recuperação será feita por meio de uma prova escrita (PR) e a média de recuperação (MR) será calculada como MR=(NF=PR)/2</t>
+    <t>1. EK, M., GELLERSTEDT, G., HENRIKSSON, G. Wood Chemistry and Wood Biotechnology (Vol 1) e Pulping Chemistry and Technology (Vol 2). Berlin: Walter de Gruyter, 2009.
+2. KLEMM, D., PHILIPP, B., HEINZE, T., HEINZE, U., WAGENKNECHT, U. Comprehensive Cellulose Chemistry (Volume 2-Functionalization of Cellulose). Berlin: Wyley, 1998.
+3. FENGEL, D., WEGENER, G. Wood Chemistry, Ultrastruture, Reactions. Berlin: Walter de Gruyter,1989.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -484,13 +495,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -609,37 +620,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -653,66 +661,77 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>37</v>
+      <c r="B22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
